--- a/NewProbableCasesOverTimeByCounty/2021-01-27.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-01-27.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 01/26/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 01/27/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>New Probable 2021-01-26</t>
+  </si>
+  <si>
+    <t>New Probable 2021-01-27</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1253,6 +1256,7 @@
     <col min="86" max="86" width="12.0" customWidth="true"/>
     <col min="87" max="87" width="12.0" customWidth="true"/>
     <col min="88" max="88" width="12.0" customWidth="true"/>
+    <col min="89" max="89" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1530,10 +1534,13 @@
       <c r="CJ3" t="s" s="10">
         <v>89</v>
       </c>
+      <c r="CK3" t="s" s="10">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1795,11 +1802,14 @@
       </c>
       <c r="CJ4" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2060,12 +2070,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2326,12 +2339,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2593,11 +2609,14 @@
       </c>
       <c r="CJ7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2858,12 +2877,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3125,11 +3147,14 @@
       </c>
       <c r="CJ9" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3391,11 +3416,14 @@
       </c>
       <c r="CJ10" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3657,11 +3685,14 @@
       </c>
       <c r="CJ11" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -3922,12 +3953,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4189,11 +4223,14 @@
       </c>
       <c r="CJ13" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4455,11 +4492,14 @@
       </c>
       <c r="CJ14" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4720,12 +4760,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -4987,11 +5030,14 @@
       </c>
       <c r="CJ16" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5252,12 +5298,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -5519,11 +5568,14 @@
       </c>
       <c r="CJ18" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -5784,12 +5836,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6050,12 +6105,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6316,12 +6374,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -6583,11 +6644,14 @@
       </c>
       <c r="CJ22" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -6849,11 +6913,14 @@
       </c>
       <c r="CJ23" t="n">
         <v>105.0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -7115,11 +7182,14 @@
       </c>
       <c r="CJ24" t="n">
         <v>111.0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -7381,11 +7451,14 @@
       </c>
       <c r="CJ25" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -7646,12 +7719,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -7912,12 +7988,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK27" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -8179,11 +8258,14 @@
       </c>
       <c r="CJ28" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -8445,11 +8527,14 @@
       </c>
       <c r="CJ29" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -8711,11 +8796,14 @@
       </c>
       <c r="CJ30" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -8977,11 +9065,14 @@
       </c>
       <c r="CJ31" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -9243,11 +9334,14 @@
       </c>
       <c r="CJ32" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -9509,11 +9603,14 @@
       </c>
       <c r="CJ33" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -9774,12 +9871,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -10041,11 +10141,14 @@
       </c>
       <c r="CJ35" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -10307,11 +10410,14 @@
       </c>
       <c r="CJ36" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -10573,11 +10679,14 @@
       </c>
       <c r="CJ37" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK37" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -10838,12 +10947,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK38" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -11104,12 +11216,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -11371,11 +11486,14 @@
       </c>
       <c r="CJ40" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CK40" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -11636,12 +11754,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -11902,12 +12023,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -12168,12 +12292,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -12435,11 +12562,14 @@
       </c>
       <c r="CJ44" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CK44" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -12701,11 +12831,14 @@
       </c>
       <c r="CJ45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK45" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -12967,11 +13100,14 @@
       </c>
       <c r="CJ46" t="n">
         <v>294.0</v>
+      </c>
+      <c r="CK46" t="n">
+        <v>337.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -13232,12 +13368,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -13498,12 +13637,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK48" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -13765,11 +13907,14 @@
       </c>
       <c r="CJ49" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -14030,12 +14175,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK50" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -14297,11 +14445,14 @@
       </c>
       <c r="CJ51" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CK51" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -14563,11 +14714,14 @@
       </c>
       <c r="CJ52" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CK52" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -14828,12 +14982,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK53" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -15094,12 +15251,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -15361,11 +15521,14 @@
       </c>
       <c r="CJ55" t="n">
         <v>-14.0</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -15627,11 +15790,14 @@
       </c>
       <c r="CJ56" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -15893,11 +16059,14 @@
       </c>
       <c r="CJ57" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -16159,11 +16328,14 @@
       </c>
       <c r="CJ58" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -16425,11 +16597,14 @@
       </c>
       <c r="CJ59" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK59" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -16691,11 +16866,14 @@
       </c>
       <c r="CJ60" t="n">
         <v>222.0</v>
+      </c>
+      <c r="CK60" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -16956,12 +17134,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -17223,11 +17404,14 @@
       </c>
       <c r="CJ62" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CK62" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -17489,11 +17673,14 @@
       </c>
       <c r="CJ63" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK63" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -17755,11 +17942,14 @@
       </c>
       <c r="CJ64" t="n">
         <v>253.0</v>
+      </c>
+      <c r="CK64" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -18020,12 +18210,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -18286,12 +18479,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK66" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -18553,11 +18749,14 @@
       </c>
       <c r="CJ67" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CK67" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -18818,12 +19017,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK68" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -19085,11 +19287,14 @@
       </c>
       <c r="CJ69" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK69" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -19351,11 +19556,14 @@
       </c>
       <c r="CJ70" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK70" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -19617,11 +19825,14 @@
       </c>
       <c r="CJ71" t="n">
         <v>85.0</v>
+      </c>
+      <c r="CK71" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -19882,12 +20093,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -20149,11 +20363,14 @@
       </c>
       <c r="CJ73" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CK73" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -20414,12 +20631,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -20681,11 +20901,14 @@
       </c>
       <c r="CJ75" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CK75" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -20946,12 +21169,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK76" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -21213,11 +21439,14 @@
       </c>
       <c r="CJ77" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CK77" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -21479,11 +21708,14 @@
       </c>
       <c r="CJ78" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CK78" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -21744,12 +21976,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -22011,11 +22246,14 @@
       </c>
       <c r="CJ80" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK80" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -22276,12 +22514,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -22543,11 +22784,14 @@
       </c>
       <c r="CJ82" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK82" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -22808,12 +23052,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK83" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -23074,12 +23321,15 @@
         <v>2.0</v>
       </c>
       <c r="CJ84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK84" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -23341,11 +23591,14 @@
       </c>
       <c r="CJ85" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -23606,12 +23859,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -23873,11 +24129,14 @@
       </c>
       <c r="CJ87" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CK87" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -24139,11 +24398,14 @@
       </c>
       <c r="CJ88" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK88" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -24405,11 +24667,14 @@
       </c>
       <c r="CJ89" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK89" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -24671,11 +24936,14 @@
       </c>
       <c r="CJ90" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CK90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -24936,12 +25204,15 @@
         <v>6.0</v>
       </c>
       <c r="CJ91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -25203,11 +25474,14 @@
       </c>
       <c r="CJ92" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -25469,11 +25743,14 @@
       </c>
       <c r="CJ93" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -25734,12 +26011,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -26001,11 +26281,14 @@
       </c>
       <c r="CJ95" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -26266,12 +26549,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK96" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -26533,11 +26819,14 @@
       </c>
       <c r="CJ97" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CK97" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -26798,12 +27087,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -27065,11 +27357,14 @@
       </c>
       <c r="CJ99" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK99" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -27331,11 +27626,14 @@
       </c>
       <c r="CJ100" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK100" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -27597,11 +27895,14 @@
       </c>
       <c r="CJ101" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK101" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -27862,12 +28163,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -28129,11 +28433,14 @@
       </c>
       <c r="CJ103" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CK103" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -28394,12 +28701,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -28661,11 +28971,14 @@
       </c>
       <c r="CJ105" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CK105" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -28926,12 +29239,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK106" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -29193,11 +29509,14 @@
       </c>
       <c r="CJ107" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -29459,11 +29778,14 @@
       </c>
       <c r="CJ108" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -29725,11 +30047,14 @@
       </c>
       <c r="CJ109" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -29991,11 +30316,14 @@
       </c>
       <c r="CJ110" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -30257,11 +30585,14 @@
       </c>
       <c r="CJ111" t="n">
         <v>370.0</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -30523,11 +30854,14 @@
       </c>
       <c r="CJ112" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -30789,11 +31123,14 @@
       </c>
       <c r="CJ113" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -31055,11 +31392,14 @@
       </c>
       <c r="CJ114" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -31321,11 +31661,14 @@
       </c>
       <c r="CJ115" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -31587,11 +31930,14 @@
       </c>
       <c r="CJ116" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -31853,11 +32199,14 @@
       </c>
       <c r="CJ117" t="n">
         <v>-79.0</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -32119,11 +32468,14 @@
       </c>
       <c r="CJ118" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CK118" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -32384,12 +32736,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -32651,11 +33006,14 @@
       </c>
       <c r="CJ120" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CK120" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -32917,11 +33275,14 @@
       </c>
       <c r="CJ121" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK121" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -33183,11 +33544,14 @@
       </c>
       <c r="CJ122" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CK122" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -33449,11 +33813,14 @@
       </c>
       <c r="CJ123" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK123" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -33715,11 +34082,14 @@
       </c>
       <c r="CJ124" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK124" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -33981,11 +34351,14 @@
       </c>
       <c r="CJ125" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK125" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -34246,12 +34619,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -34512,12 +34888,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK127" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -34779,11 +35158,14 @@
       </c>
       <c r="CJ128" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK128" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -35045,11 +35427,14 @@
       </c>
       <c r="CJ129" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CK129" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -35311,11 +35696,14 @@
       </c>
       <c r="CJ130" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CK130" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -35577,11 +35965,14 @@
       </c>
       <c r="CJ131" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CK131" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -35843,11 +36234,14 @@
       </c>
       <c r="CJ132" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CK132" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -36109,11 +36503,14 @@
       </c>
       <c r="CJ133" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK133" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -36374,12 +36771,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -36640,12 +37040,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -36907,11 +37310,14 @@
       </c>
       <c r="CJ136" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CK136" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -37173,11 +37579,14 @@
       </c>
       <c r="CJ137" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK137" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -37438,12 +37847,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -37704,12 +38116,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -37971,11 +38386,14 @@
       </c>
       <c r="CJ140" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CK140" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -38237,11 +38655,14 @@
       </c>
       <c r="CJ141" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK141" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -38503,11 +38924,14 @@
       </c>
       <c r="CJ142" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CK142" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -38769,11 +39193,14 @@
       </c>
       <c r="CJ143" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK143" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -39035,11 +39462,14 @@
       </c>
       <c r="CJ144" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK144" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -39300,12 +39730,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -39567,11 +40000,14 @@
       </c>
       <c r="CJ146" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK146" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -39833,11 +40269,14 @@
       </c>
       <c r="CJ147" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK147" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -40099,11 +40538,14 @@
       </c>
       <c r="CJ148" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK148" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -40365,11 +40807,14 @@
       </c>
       <c r="CJ149" t="n">
         <v>-6.0</v>
+      </c>
+      <c r="CK149" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -40630,12 +41075,15 @@
         <v>7.0</v>
       </c>
       <c r="CJ150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK150" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -40896,12 +41344,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -41163,11 +41614,14 @@
       </c>
       <c r="CJ152" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK152" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -41429,11 +41883,14 @@
       </c>
       <c r="CJ153" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK153" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -41694,12 +42151,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -41960,12 +42420,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -42226,12 +42689,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -42493,11 +42959,14 @@
       </c>
       <c r="CJ157" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CK157" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -42758,12 +43227,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -43025,11 +43497,14 @@
       </c>
       <c r="CJ159" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK159" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -43291,11 +43766,14 @@
       </c>
       <c r="CJ160" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK160" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -43556,12 +44034,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK161" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -43823,11 +44304,14 @@
       </c>
       <c r="CJ162" t="n">
         <v>-12.0</v>
+      </c>
+      <c r="CK162" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -44089,11 +44573,14 @@
       </c>
       <c r="CJ163" t="n">
         <v>-11.0</v>
+      </c>
+      <c r="CK163" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -44355,11 +44842,14 @@
       </c>
       <c r="CJ164" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CK164" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -44620,12 +45110,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -44887,11 +45380,14 @@
       </c>
       <c r="CJ166" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CK166" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -45153,11 +45649,14 @@
       </c>
       <c r="CJ167" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CK167" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -45418,12 +45917,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -45685,11 +46187,14 @@
       </c>
       <c r="CJ169" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CK169" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -45950,12 +46455,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -46216,12 +46724,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -46483,11 +46994,14 @@
       </c>
       <c r="CJ172" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK172" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -46749,11 +47263,14 @@
       </c>
       <c r="CJ173" t="n">
         <v>493.0</v>
+      </c>
+      <c r="CK173" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -47015,11 +47532,14 @@
       </c>
       <c r="CJ174" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK174" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -47280,12 +47800,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK175" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -47546,12 +48069,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -47813,11 +48339,14 @@
       </c>
       <c r="CJ177" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK177" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -48079,11 +48608,14 @@
       </c>
       <c r="CJ178" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK178" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -48345,11 +48877,14 @@
       </c>
       <c r="CJ179" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK179" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -48610,12 +49145,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -48877,11 +49415,14 @@
       </c>
       <c r="CJ181" t="n">
         <v>56.0</v>
+      </c>
+      <c r="CK181" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -49142,12 +49683,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK182" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -49409,11 +49953,14 @@
       </c>
       <c r="CJ183" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK183" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -49675,11 +50222,14 @@
       </c>
       <c r="CJ184" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CK184" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -49941,11 +50491,14 @@
       </c>
       <c r="CJ185" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CK185" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -50207,11 +50760,14 @@
       </c>
       <c r="CJ186" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK186" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -50473,11 +51029,14 @@
       </c>
       <c r="CJ187" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CK187" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -50738,12 +51297,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -51005,11 +51567,14 @@
       </c>
       <c r="CJ189" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CK189" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -51270,12 +51835,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -51536,12 +52104,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -51803,11 +52374,14 @@
       </c>
       <c r="CJ192" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CK192" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -52069,11 +52643,14 @@
       </c>
       <c r="CJ193" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK193" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -52334,12 +52911,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -52601,11 +53181,14 @@
       </c>
       <c r="CJ195" t="n">
         <v>-7.0</v>
+      </c>
+      <c r="CK195" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -52867,11 +53450,14 @@
       </c>
       <c r="CJ196" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK196" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -53133,11 +53719,14 @@
       </c>
       <c r="CJ197" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK197" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -53399,11 +53988,14 @@
       </c>
       <c r="CJ198" t="n">
         <v>-48.0</v>
+      </c>
+      <c r="CK198" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -53665,11 +54257,14 @@
       </c>
       <c r="CJ199" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK199" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -53930,12 +54525,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -54197,11 +54795,14 @@
       </c>
       <c r="CJ201" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CK201" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -54463,11 +55064,14 @@
       </c>
       <c r="CJ202" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CK202" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -54729,11 +55333,14 @@
       </c>
       <c r="CJ203" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK203" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -54995,11 +55602,14 @@
       </c>
       <c r="CJ204" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK204" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -55261,11 +55871,14 @@
       </c>
       <c r="CJ205" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK205" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -55526,12 +56139,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -55793,11 +56409,14 @@
       </c>
       <c r="CJ207" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK207" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -56058,12 +56677,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -56325,11 +56947,14 @@
       </c>
       <c r="CJ209" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CK209" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -56591,11 +57216,14 @@
       </c>
       <c r="CJ210" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CK210" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -56856,12 +57484,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -57123,11 +57754,14 @@
       </c>
       <c r="CJ212" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CK212" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -57389,11 +58023,14 @@
       </c>
       <c r="CJ213" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CK213" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -57655,11 +58292,14 @@
       </c>
       <c r="CJ214" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK214" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -57921,11 +58561,14 @@
       </c>
       <c r="CJ215" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK215" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -58187,11 +58830,14 @@
       </c>
       <c r="CJ216" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CK216" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -58453,11 +59099,14 @@
       </c>
       <c r="CJ217" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CK217" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -58719,11 +59368,14 @@
       </c>
       <c r="CJ218" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CK218" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -58985,11 +59637,14 @@
       </c>
       <c r="CJ219" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK219" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -59250,12 +59905,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK220" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -59517,11 +60175,14 @@
       </c>
       <c r="CJ221" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CK221" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -59783,11 +60444,14 @@
       </c>
       <c r="CJ222" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK222" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -60049,11 +60713,14 @@
       </c>
       <c r="CJ223" t="n">
         <v>199.0</v>
+      </c>
+      <c r="CK223" t="n">
+        <v>452.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -60315,11 +60982,14 @@
       </c>
       <c r="CJ224" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CK224" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -60581,11 +61251,14 @@
       </c>
       <c r="CJ225" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK225" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -60846,12 +61519,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -61112,12 +61788,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -61379,11 +62058,14 @@
       </c>
       <c r="CJ228" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK228" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -61645,11 +62327,14 @@
       </c>
       <c r="CJ229" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CK229" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -61910,12 +62595,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -62177,11 +62865,14 @@
       </c>
       <c r="CJ231" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CK231" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -62443,11 +63134,14 @@
       </c>
       <c r="CJ232" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK232" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -62709,11 +63403,14 @@
       </c>
       <c r="CJ233" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CK233" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -62975,11 +63672,14 @@
       </c>
       <c r="CJ234" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CK234" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -63241,11 +63941,14 @@
       </c>
       <c r="CJ235" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK235" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -63506,12 +64209,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -63773,11 +64479,14 @@
       </c>
       <c r="CJ237" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK237" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -64038,12 +64747,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -64305,11 +65017,14 @@
       </c>
       <c r="CJ239" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CK239" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -64571,11 +65286,14 @@
       </c>
       <c r="CJ240" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK240" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -64837,11 +65555,14 @@
       </c>
       <c r="CJ241" t="n">
         <v>-5.0</v>
+      </c>
+      <c r="CK241" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -65103,11 +65824,14 @@
       </c>
       <c r="CJ242" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CK242" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -65368,12 +66092,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -65635,11 +66362,14 @@
       </c>
       <c r="CJ244" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK244" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -65901,11 +66631,14 @@
       </c>
       <c r="CJ245" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CK245" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -66166,12 +66899,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -66433,11 +67169,14 @@
       </c>
       <c r="CJ247" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK247" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -66699,11 +67438,14 @@
       </c>
       <c r="CJ248" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK248" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -66965,11 +67707,14 @@
       </c>
       <c r="CJ249" t="n">
         <v>106.0</v>
+      </c>
+      <c r="CK249" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -67231,11 +67976,14 @@
       </c>
       <c r="CJ250" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CK250" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -67497,11 +68245,14 @@
       </c>
       <c r="CJ251" t="n">
         <v>-9.0</v>
+      </c>
+      <c r="CK251" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -67763,11 +68514,14 @@
       </c>
       <c r="CJ252" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CK252" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -68029,11 +68783,14 @@
       </c>
       <c r="CJ253" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CK253" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -68294,12 +69051,15 @@
         <v>0.0</v>
       </c>
       <c r="CJ254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -68561,11 +69321,14 @@
       </c>
       <c r="CJ255" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CK255" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -68827,11 +69590,14 @@
       </c>
       <c r="CJ256" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CK256" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -69093,11 +69859,14 @@
       </c>
       <c r="CJ257" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CK257" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -69186,10 +69955,11 @@
       <c r="CH258"/>
       <c r="CI258"/>
       <c r="CJ258"/>
+      <c r="CK258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -69278,6 +70048,7 @@
       <c r="CH259"/>
       <c r="CI259"/>
       <c r="CJ259"/>
+      <c r="CK259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
